--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5b-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5b-Fzd8.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.027778333333333</v>
+        <v>3.235341333333333</v>
       </c>
       <c r="N2">
-        <v>3.083335</v>
+        <v>9.706023999999999</v>
       </c>
       <c r="O2">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="P2">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="Q2">
-        <v>0.8378740177194444</v>
+        <v>2.637541922937777</v>
       </c>
       <c r="R2">
-        <v>7.540866159475001</v>
+        <v>23.73787730644</v>
       </c>
       <c r="S2">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="T2">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>21.820535</v>
       </c>
       <c r="O3">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="P3">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="Q3">
         <v>5.929572793497222</v>
@@ -632,10 +632,10 @@
         <v>53.366155141475</v>
       </c>
       <c r="S3">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="T3">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>13.539461</v>
       </c>
       <c r="O4">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="P4">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="Q4">
         <v>3.679250741753889</v>
@@ -694,10 +694,10 @@
         <v>33.113256675785</v>
       </c>
       <c r="S4">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="T4">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
     </row>
   </sheetData>
